--- a/ACCSector.xlsx
+++ b/ACCSector.xlsx
@@ -3,13 +3,57 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D89ED04-7DA5-4344-A3C1-C06C4E8E4ED8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15723972-5A62-43B8-A477-14C506139314}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29790" yWindow="5025" windowWidth="28050" windowHeight="21690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21375" yWindow="11925" windowWidth="25800" windowHeight="17520" firstSheet="42" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanto East Sector1" sheetId="1" r:id="rId1"/>
     <sheet name="Kanto East Sector2" sheetId="2" r:id="rId2"/>
+    <sheet name="Joetsu Sector" sheetId="3" r:id="rId3"/>
+    <sheet name="Tohoku Sector" sheetId="4" r:id="rId4"/>
+    <sheet name="Kanto North Sector1" sheetId="5" r:id="rId5"/>
+    <sheet name="Kanto North Sector2" sheetId="6" r:id="rId6"/>
+    <sheet name="Kanto East Sector3" sheetId="7" r:id="rId7"/>
+    <sheet name="Kazusa Sector" sheetId="8" r:id="rId8"/>
+    <sheet name="Isumi Sector" sheetId="9" r:id="rId9"/>
+    <sheet name="Joshu Sector1" sheetId="10" r:id="rId10"/>
+    <sheet name="Joshu Sector2" sheetId="11" r:id="rId11"/>
+    <sheet name="Kanto South A Sector1" sheetId="12" r:id="rId12"/>
+    <sheet name="Kanto South A Sector2" sheetId="13" r:id="rId13"/>
+    <sheet name="Kanto South A Sector3" sheetId="14" r:id="rId14"/>
+    <sheet name="Kanto South B Sector1" sheetId="15" r:id="rId15"/>
+    <sheet name="Kanto South B Sector2" sheetId="16" r:id="rId16"/>
+    <sheet name="Kanto South C Sector" sheetId="17" r:id="rId17"/>
+    <sheet name="Kanto West Sector1" sheetId="18" r:id="rId18"/>
+    <sheet name="Kanto West Sector2" sheetId="19" r:id="rId19"/>
+    <sheet name="Kanto West Sector3" sheetId="20" r:id="rId20"/>
+    <sheet name="Musashi Sector" sheetId="21" r:id="rId21"/>
+    <sheet name="Shonan Sector" sheetId="22" r:id="rId22"/>
+    <sheet name="Boso Sector" sheetId="23" r:id="rId23"/>
+    <sheet name="Kinki West Sector1" sheetId="24" r:id="rId24"/>
+    <sheet name="Kinki West Sector2" sheetId="25" r:id="rId25"/>
+    <sheet name="Sanyo Sector1" sheetId="26" r:id="rId26"/>
+    <sheet name="Sanyo Sector2" sheetId="27" r:id="rId27"/>
+    <sheet name="Harima Sector1" sheetId="28" r:id="rId28"/>
+    <sheet name="Harima Sector2" sheetId="29" r:id="rId29"/>
+    <sheet name="Mikawa Sector1" sheetId="30" r:id="rId30"/>
+    <sheet name="Mikawa Sector2" sheetId="31" r:id="rId31"/>
+    <sheet name="Tokai Sector1" sheetId="32" r:id="rId32"/>
+    <sheet name="Tokai Sector2" sheetId="33" r:id="rId33"/>
+    <sheet name="Tokai Sector3" sheetId="34" r:id="rId34"/>
+    <sheet name="Tokai Sector4" sheetId="35" r:id="rId35"/>
+    <sheet name="Hokuriku Sector1" sheetId="36" r:id="rId36"/>
+    <sheet name="Hokuriku Sector2" sheetId="37" r:id="rId37"/>
+    <sheet name="Wakasa Sector" sheetId="38" r:id="rId38"/>
+    <sheet name="Misawa West Sector" sheetId="39" r:id="rId39"/>
+    <sheet name="Tohoku Kouiki Sector" sheetId="40" r:id="rId40"/>
+    <sheet name="Misawa East Sector" sheetId="41" r:id="rId41"/>
+    <sheet name="Hokkaido South Sector1" sheetId="42" r:id="rId42"/>
+    <sheet name="Hokkaido South Sector2" sheetId="43" r:id="rId43"/>
+    <sheet name="Hokkaido East Sector1" sheetId="44" r:id="rId44"/>
+    <sheet name="Hokkaido East Sector2" sheetId="45" r:id="rId45"/>
+    <sheet name="Doto Kouiki Sector1" sheetId="48" r:id="rId46"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="205">
   <si>
     <t>391722N1431449E, 382716N1453949E, </t>
   </si>
@@ -47,9 +91,6 @@
     <t>364507N1412012E, 365647N1412704E, </t>
   </si>
   <si>
-    <t>373319N1414732E, 374422N1413533E</t>
-  </si>
-  <si>
     <t>372402N1431953E, 370717N1435950E, </t>
   </si>
   <si>
@@ -59,20 +100,822 @@
     <t>351738N1422932E, 351639N1421137E, </t>
   </si>
   <si>
-    <t>352544N1413738E*1, 360500N1414433E*2, </t>
-  </si>
-  <si>
     <t>360500N1412044E, 364507N1412012E, </t>
   </si>
   <si>
     <t>365647N1412704E</t>
+  </si>
+  <si>
+    <t>393010N1371449E, 393010N1384548E, </t>
+  </si>
+  <si>
+    <t>390010N1395948E, 390010N1400812E, </t>
+  </si>
+  <si>
+    <t>385239N1401002E, 383146N1394548E, </t>
+  </si>
+  <si>
+    <t>374057N1394535E, 370350N1383800E, </t>
+  </si>
+  <si>
+    <t>371117N1380435E, 372521N1375144E, </t>
+  </si>
+  <si>
+    <t>374836N1373157E, 390810N1364149E</t>
+  </si>
+  <si>
+    <t>390010N1414947E, 394810N1421047E, </t>
+  </si>
+  <si>
+    <t>400010N1423447E, 403210N1435346E, </t>
+  </si>
+  <si>
+    <t>395644N1435258E, 391722N1431449E, </t>
+  </si>
+  <si>
+    <t>374422N1413533E, 374310N1402620E, </t>
+  </si>
+  <si>
+    <t>374057N1394535E, 383146N1394548E, </t>
+  </si>
+  <si>
+    <t>385239N1401002E, 390010N1400812E</t>
+  </si>
+  <si>
+    <t>374310N1402620E, 374422N1413533E, </t>
+  </si>
+  <si>
+    <t>373319N1414732E, 365647N1412704E, </t>
+  </si>
+  <si>
+    <t>364507N1412012E, 360500N1412044E, </t>
+  </si>
+  <si>
+    <t>360500N1404347E, 360626N1402905E, </t>
+  </si>
+  <si>
+    <t>360623N1401845E, 355130N1401705E, </t>
+  </si>
+  <si>
+    <t>355158N1394952E, 355347N1392830E, </t>
+  </si>
+  <si>
+    <t>360308N1393253E, 360914N1381838E, </t>
+  </si>
+  <si>
+    <t>365227N1383027E, 370350N1383800E, </t>
+  </si>
+  <si>
+    <t>374057N1394535E</t>
+  </si>
+  <si>
+    <t>360623N1401845E, 361350N1400832E</t>
+  </si>
+  <si>
+    <t>352909N1412605E, 354238N1405407E, </t>
+  </si>
+  <si>
+    <t>360500N1404347E, 360500N1412044E</t>
+  </si>
+  <si>
+    <t>360811N1402818E, 360858N1402626E, </t>
+  </si>
+  <si>
+    <t>361619N1402619E, 361628N1402245E, </t>
+  </si>
+  <si>
+    <t>362657N1402434E</t>
+  </si>
+  <si>
+    <t>362229N1404432E, 361628N1403851E, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>360500N1414433E, 352544N1413738E, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>350019N1393818E, 350927N1403247E, </t>
+  </si>
+  <si>
+    <t>344125N1402609E, 342522N1395507E, </t>
+  </si>
+  <si>
+    <t>342038N1393603E, 341021N1385527E, </t>
+  </si>
+  <si>
+    <t>340754N1384555E, 335745N1380326E, </t>
+  </si>
+  <si>
+    <t>334632N1370813E, 335813N1370227E, </t>
+  </si>
+  <si>
+    <t>341132N1370510E, 341417N1374006E, </t>
+  </si>
+  <si>
+    <t>345032N1375027E, 345118N1380116E, </t>
+  </si>
+  <si>
+    <t>345153N1384546E, 345333N1385527E, </t>
+  </si>
+  <si>
+    <t>345412N1385949E</t>
+  </si>
+  <si>
+    <t>345032N1375027E, 341417N1374006E, </t>
+  </si>
+  <si>
+    <t>341132N1370510E, 342817N1370807E, </t>
+  </si>
+  <si>
+    <t>344740N1373848E, 344958N1374249E</t>
+  </si>
+  <si>
+    <t>345333N1385527E, 345412N1385949E</t>
+  </si>
+  <si>
+    <t>344125N1402609E, </t>
+  </si>
+  <si>
+    <t>342522N1395507E, </t>
+  </si>
+  <si>
+    <t>342038N1393603E, 341021N1385527E,</t>
+  </si>
+  <si>
+    <t>350927N1403247E, 353623N1405004E, </t>
+  </si>
+  <si>
+    <t>352458N1410227E, 344054N1412647E, </t>
+  </si>
+  <si>
+    <t>341830N1414012E, 333659N1414512E, </t>
+  </si>
+  <si>
+    <t>323705N1415218E, 323705N1410548E, </t>
+  </si>
+  <si>
+    <t>323705N1372628E, 332626N1371333E, </t>
+  </si>
+  <si>
+    <t>334632N1370813E, 335745N1380326E, </t>
+  </si>
+  <si>
+    <t>340754N1384555E, 341021N1385527E, </t>
+  </si>
+  <si>
+    <t>342038N1393603E, 342522N1395507E, </t>
+  </si>
+  <si>
+    <t>344125N1402609E </t>
+  </si>
+  <si>
+    <t>333659N1394607E, 340512N1393936E, </t>
+  </si>
+  <si>
+    <t>344125N1402609E</t>
+  </si>
+  <si>
+    <t>350927N1403247E, </t>
+  </si>
+  <si>
+    <t>353623N1405004E, </t>
+  </si>
+  <si>
+    <t>313013N1410549E, 303014N1401949E, </t>
+  </si>
+  <si>
+    <t>303013N1360050E, 310943N1354410E, </t>
+  </si>
+  <si>
+    <t>312259N1345950E, 321638N1345950E, </t>
+  </si>
+  <si>
+    <t>325621N1355906E, 332626N1371333E, </t>
+  </si>
+  <si>
+    <t>323705N1372628E, 323705N1410548E</t>
+  </si>
+  <si>
+    <t>360308N1393253E, 355347N1392830E, </t>
+  </si>
+  <si>
+    <t>355158N1394952E, 355130N1401705E, </t>
+  </si>
+  <si>
+    <t>360623N1401845E, 360626N1402905E, </t>
+  </si>
+  <si>
+    <t>355800N1403248E, 354238N1405407E, </t>
+  </si>
+  <si>
+    <t>353623N1405004E, 350927N1403247E, </t>
+  </si>
+  <si>
+    <t>350019N1393818E, 345412N1385949E, </t>
+  </si>
+  <si>
+    <t>345333N1385527E, 345153N1384546E, </t>
+  </si>
+  <si>
+    <t>345118N1380116E, 345032N1375027E, </t>
+  </si>
+  <si>
+    <t>344958N1374249E, 345211N1373935E, </t>
+  </si>
+  <si>
+    <t>351129N1374252E, 354108N1374754E, </t>
+  </si>
+  <si>
+    <t>354330N1375028E, 360914N1381838E</t>
+  </si>
+  <si>
+    <t>354108N1374754E, 352655N1374529E, </t>
+  </si>
+  <si>
+    <t>353944N1374405E</t>
+  </si>
+  <si>
+    <t>352451N1374240E, 353330N1373857E, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>355158N1384542E, 355347N1392830E, </t>
+  </si>
+  <si>
+    <t>350511N1384549E</t>
+  </si>
+  <si>
+    <t>355158N1384542E, </t>
+  </si>
+  <si>
+    <t>355347N1392830E, </t>
+  </si>
+  <si>
+    <t>373010N1325950E, 355935N1334441E, </t>
+  </si>
+  <si>
+    <t>354941N1342057E, 354455N1345607E, </t>
+  </si>
+  <si>
+    <t>353522N1350606E, 352907N1350110E, </t>
+  </si>
+  <si>
+    <t>345925N1341629E, 344557N1331030E, </t>
+  </si>
+  <si>
+    <t>353028N1323824E, 353332N1301913E</t>
+  </si>
+  <si>
+    <t>344557N1331030E, 344809N1332044E,</t>
+  </si>
+  <si>
+    <t>343907N1331521E</t>
+  </si>
+  <si>
+    <t>353522N1350606E, 353631N1361131E,</t>
+  </si>
+  <si>
+    <t>351800N1361847E, 345851N1355745E,</t>
+  </si>
+  <si>
+    <t>345649N1354857E, 344742N1350009E,</t>
+  </si>
+  <si>
+    <t>344219N1343209E, 345925N1341629E,</t>
+  </si>
+  <si>
+    <t>352907N1350110E</t>
+  </si>
+  <si>
+    <t>353631N1361131E, 351800N1361847E, </t>
+  </si>
+  <si>
+    <t>345851N1355745E, 350448N1362421E, </t>
+  </si>
+  <si>
+    <t>351753N1364740E, 353712N1363223E</t>
+  </si>
+  <si>
+    <t>344219N1343209E, 344742N1350009E,</t>
+  </si>
+  <si>
+    <r>
+      <t>343026N1350609E, 341701N1335730E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>341440N1335148E, 341200N1333034E,</t>
+  </si>
+  <si>
+    <t>341956N1332856E, 344557N1331030E,</t>
+  </si>
+  <si>
+    <t>345925N1341629E</t>
+  </si>
+  <si>
+    <t>343914N1360525E, 350339N1365648E,</t>
+  </si>
+  <si>
+    <t>350916N1372525E, 351129N1374252E,</t>
+  </si>
+  <si>
+    <t>345211N1373935E, 344958N1374249E,</t>
+  </si>
+  <si>
+    <t>345032N1375027E, 341417N1374006E,</t>
+  </si>
+  <si>
+    <t>341132N1370510E, 341609N1360943E,</t>
+  </si>
+  <si>
+    <t>335703N1345656E, 341826N1345405E,</t>
+  </si>
+  <si>
+    <t>343026N1350609E, 343255N1352211E</t>
+  </si>
+  <si>
+    <t>341132N1370510E, 342817N1370807E,</t>
+  </si>
+  <si>
+    <t>351129N1374252E, 350916N1372525E,</t>
+  </si>
+  <si>
+    <t>350339N1365648E, 343914N1360525E,</t>
+  </si>
+  <si>
+    <t>343255N1352211E, 343026N1350609E,</t>
+  </si>
+  <si>
+    <t>344742N1350009E, 345649N1354857E,</t>
+  </si>
+  <si>
+    <t>345851N1355745E, 351800N1361847E,</t>
+  </si>
+  <si>
+    <t>353631N1361131E, 353643N1362054E,</t>
+  </si>
+  <si>
+    <t>353733N1370708E</t>
+  </si>
+  <si>
+    <t>354330N1375028E, </t>
+  </si>
+  <si>
+    <t>354108N1374754E,</t>
+  </si>
+  <si>
+    <t>354330N1375028E, 353733N1370708E, </t>
+  </si>
+  <si>
+    <t>353758N1373948E, 353944N1374405E, </t>
+  </si>
+  <si>
+    <t>354108N1374754E</t>
+  </si>
+  <si>
+    <t>390810N1364149E, 374836N1373157E,</t>
+  </si>
+  <si>
+    <t>372521N1375144E, 371117N1380435E,</t>
+  </si>
+  <si>
+    <t>370350N1383800E, 365227N1383027E,</t>
+  </si>
+  <si>
+    <t>360914N1381838E, 354330N1375028E,</t>
+  </si>
+  <si>
+    <t>353733N1370708E, 353643N1362054E,</t>
+  </si>
+  <si>
+    <t>354657N1362354E, 361404N1360307E,</t>
+  </si>
+  <si>
+    <t>392726N1355745E </t>
+  </si>
+  <si>
+    <t>392726N1355745E, 361404N1360307E,</t>
+  </si>
+  <si>
+    <t>354657N1362354E, 353643N1362054E,</t>
+  </si>
+  <si>
+    <t>353631N1361131E, 353522N1350606E,</t>
+  </si>
+  <si>
+    <t>354455N1345607E, 354941N1342057E,</t>
+  </si>
+  <si>
+    <t>355935N1334441E, 373010N1325950E,</t>
+  </si>
+  <si>
+    <t>380010N1325950E, 383810N1333850E, 394949N1350514E</t>
+  </si>
+  <si>
+    <r>
+      <t>390010N1403200E, 390817N1403313E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>393839N1404114E, 395302N1405037E,</t>
+  </si>
+  <si>
+    <t>395602N1404344E, 401410N1404307E,</t>
+  </si>
+  <si>
+    <t>402212N1404417E, 402212N1383131E,</t>
+  </si>
+  <si>
+    <t>393010N1382442E, 393010N1384548E,</t>
+  </si>
+  <si>
+    <t>390010N1395948E</t>
+  </si>
+  <si>
+    <r>
+      <t>393010N1382442E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>393010N1384548E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>390010N1395948E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>390010N1403200E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>390817N1403313E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>393839N1404114E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>395302N1405037E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>395602N1404344E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>401410N1404307E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>402212N1404417E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>404323N1404730E</t>
+  </si>
+  <si>
+    <r>
+      <t>410010N1405546E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>411600N1383840E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>390010N1403200E, 390010N1414947E,</t>
+  </si>
+  <si>
+    <t>394810N1421047E, 400010N1423447E,</t>
+  </si>
+  <si>
+    <t>403310N1435546E, 410010N1440046E,</t>
+  </si>
+  <si>
+    <t>410010N1431646E, 421509N1420247E,</t>
+  </si>
+  <si>
+    <t>421928N1414025E, 421257N1413828E,</t>
+  </si>
+  <si>
+    <t>415854N1413948E, 402934N1411500E,</t>
+  </si>
+  <si>
+    <t>402212N1404417E, 401410N1404307E,</t>
+  </si>
+  <si>
+    <t>395602N1404344E, 395302N1405037E,</t>
+  </si>
+  <si>
+    <t>393839N1404114E, 390817N1403313E</t>
+  </si>
+  <si>
+    <t>421257N1413828E, 421928N1414025E,</t>
+  </si>
+  <si>
+    <t>422741N1405757E, 421256N1395947E,</t>
+  </si>
+  <si>
+    <t>424258N1385037E, 444239N1390724E,</t>
+  </si>
+  <si>
+    <t>403009N1355549E, 394949N1350514E,</t>
+  </si>
+  <si>
+    <t>390810N1364149E, 393010N1371449E,</t>
+  </si>
+  <si>
+    <t>393010N1382442E, 402212N1383131E,</t>
+  </si>
+  <si>
+    <t>402212N1404417E</t>
+  </si>
+  <si>
+    <t>402934N1411500E, </t>
+  </si>
+  <si>
+    <t>415854N1413948E,</t>
+  </si>
+  <si>
+    <t>410010N1405546E, </t>
+  </si>
+  <si>
+    <t>402212N1383131E, 402212N1404417E,</t>
+  </si>
+  <si>
+    <t>410010N1402443E,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>411551N1395707E, 411600N1383840E, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>454507N1395947E, 454507N1415946E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>443009N1453945E,</t>
+  </si>
+  <si>
+    <t>432009N1454945E, 430451N1463552E,</t>
+  </si>
+  <si>
+    <t>410010N1440046E, 410010N1431646E,</t>
+  </si>
+  <si>
+    <t>421509N1420247E, 421928N1414025E,</t>
+  </si>
+  <si>
+    <t>422519N1411013E, 422741N1405757E,</t>
+  </si>
+  <si>
+    <t>421256N1395947E, 424258N1385037E,</t>
+  </si>
+  <si>
+    <t>444239N1390724E</t>
+  </si>
+  <si>
+    <t>445104N1444116E, 443009N1453945E,</t>
+  </si>
+  <si>
+    <t>432009N1454945E, 420010N1441946E,</t>
+  </si>
+  <si>
+    <t>420010N1422547E, 431715N1423032E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>432009N1454945E, </t>
+  </si>
+  <si>
+    <r>
+      <t>420010N1441946E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>445104N1444116E, </t>
+  </si>
+  <si>
+    <t>424008N1414046E</t>
+  </si>
+  <si>
+    <t>411551N1395707E,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>352544N1413738E, 360500N1414433E, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>373319N1414732E, 374422N1413533E,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>365647N1412704E,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>360500N1414433E, 352544N1413738E, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>420010N1422547E,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>431715N1423032E,</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +932,12 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -400,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -451,13 +1300,483 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="82" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B0CA8A-8DB8-461B-BA2B-7138BF299986}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C335FFB0-4BFC-4D8F-BCCC-DBC4A92216DB}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D6BDF6-6DD8-44A1-8008-FFCEDF8376E2}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89B7407-5383-4C77-B96F-57180422DCAE}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BA6D28-E277-4630-91CD-8FFCC78D48B6}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94865923-DE76-4846-BD9D-BCCACB30FFBC}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9E3769-9103-4DBB-AE34-781DDE67DA43}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58997762-5A81-4718-B57D-8F0C56255F3F}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E614994A-B112-45F7-8490-A702F817270A}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6319F211-DE98-4780-B65B-EF3A37C187AB}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -466,41 +1785,1555 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE70E9E-2E60-4D9F-AFF8-4B6149FC736F}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0F2900-EAA1-40F6-9EE1-CD728DE58008}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90A9863-B0B9-4F1B-A6F8-A041EA661A1F}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85798995-35BF-465A-8E2B-B8840969A103}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2004A2-2437-42BF-A874-EFEABF374C17}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F87861-C34C-4912-9CAC-63E5E19E723B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5708A6C-364E-4C48-95AF-F54BD77F46C7}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F73670A-D276-4882-BA9C-47B3F0F7C1B9}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C6DE59-130E-4020-9CD5-6C43AB932660}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF69CB63-DEF9-4117-886E-524C3651567B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98023C4-63FA-4DB7-BB38-6FA729D55A1D}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="82" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D3CCCB-C522-426A-9E8B-7C00462F5B26}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70892C2C-177E-4442-B85F-4F330FA5C504}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7C5ADA-CFE3-4289-8D39-A6C4DD50BA69}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C258D25-69ED-4DFE-BA66-E0A78B7C679D}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4452107-5C6F-4F03-95B5-5F6C4D6ABAE7}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2960F33B-3CBE-43DE-8D94-BC376761A767}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130C8C25-0B22-4EC2-A526-19F65EFF7B17}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BF9C39-D2DC-4BBD-9474-D9B23B3647E7}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DBA742-CE71-44CF-8189-B9DB20D1408B}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE15F65-E21D-469D-BAB5-7689878FE551}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="82" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3449DD15-3E3A-4143-AF89-4BD1BF6B2ED1}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573B1038-FDC0-403E-8C7E-34595BCB178A}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4D9440-11E0-45D1-8127-8FB0B0EB3CEA}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D712F9-5DD4-4980-A537-68FB13CE0E5C}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE4CCC5-8BD8-41C9-9D12-22E26F3D58C3}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976B4FE8-8D7E-49E7-8D14-55646D4FCFB9}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50092698-8A2F-4B10-AC42-3A7D97FFD274}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE422038-7811-4F3D-90BB-DEDDEC01AB46}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFD45D9-75DB-4052-B08A-F2BA75B24435}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F79C19-13B9-456B-926B-C0C781CCA043}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEF14D2-C75F-469B-92E4-ED6A758342F5}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A861D5C-1898-410F-8920-01D79A7A68D3}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463E0854-3CC9-4371-A70A-F1CC65741E80}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
